--- a/MHSP/data/Staging_Area_info.xlsx
+++ b/MHSP/data/Staging_Area_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\baseline_model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\MHSP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA0C65C-216B-436F-866A-06F540518D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2673ABD-83EC-4C19-9A2D-704EF91FDA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Warehouse_FEMA_4" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Staging_area</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Capacity</t>
+  </si>
+  <si>
+    <t>Etend_price</t>
   </si>
 </sst>
 </file>
@@ -626,9 +629,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -666,7 +669,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -772,7 +775,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -914,7 +917,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -922,41 +925,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="3" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>30000000</v>
+        <v>300</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>30000000</v>
+        <v>300</v>
+      </c>
+      <c r="C3" s="1">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>

--- a/MHSP/data/Staging_Area_info.xlsx
+++ b/MHSP/data/Staging_Area_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\MHSP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2673ABD-83EC-4C19-9A2D-704EF91FDA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A676866-B4CF-41DC-8726-DCFE17E2823E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="16440" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Warehouse_FEMA_4" sheetId="1" r:id="rId1"/>
@@ -928,7 +928,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="S22" sqref="R22:S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -955,7 +955,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="C2" s="1">
         <v>100000</v>
@@ -966,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="C3" s="1">
         <v>100000</v>

--- a/MHSP/data/Staging_Area_info.xlsx
+++ b/MHSP/data/Staging_Area_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\MHSP\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long-Term_MHSP\Long_Term_Housing_Planning\MHSP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A676866-B4CF-41DC-8726-DCFE17E2823E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252B2FE1-51EC-43E6-A52D-2F83540C1CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Staging_area</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>Capacity</t>
-  </si>
-  <si>
-    <t>Etend_price</t>
   </si>
 </sst>
 </file>
@@ -925,51 +922,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="R22:S22"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>3000</v>
       </c>
-      <c r="C2" s="1">
-        <v>100000</v>
-      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>3000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>100000</v>
       </c>
     </row>
   </sheetData>

--- a/MHSP/data/Staging_Area_info.xlsx
+++ b/MHSP/data/Staging_Area_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long-Term_MHSP\Long_Term_Housing_Planning\MHSP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252B2FE1-51EC-43E6-A52D-2F83540C1CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855BD824-6F4D-44BF-AC28-D9ECD9B071C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -925,7 +925,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -948,7 +948,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>3000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -956,7 +956,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>3000</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
